--- a/Logistics/ECE_Parts Order Form_75.xlsx
+++ b/Logistics/ECE_Parts Order Form_75.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\GitHub\SeniorDesign\Logistics\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="12600"/>
   </bookViews>
@@ -12,14 +17,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Request!$P$20:$P$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Request!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="87">
   <si>
     <t>Team #:</t>
   </si>
@@ -55,12 +60,6 @@
   </si>
   <si>
     <t>___________________________</t>
-  </si>
-  <si>
-    <t>Initiator: _____________________________</t>
-  </si>
-  <si>
-    <t>Name: ____________________________________</t>
   </si>
   <si>
     <t>Phone: ________________</t>
@@ -90,116 +89,222 @@
     <t>SENIOR DESIGN PARTS REQUEST BY VENDOR</t>
   </si>
   <si>
-    <t>email: __________________________</t>
-  </si>
-  <si>
-    <t>Phone: _____________________</t>
-  </si>
-  <si>
-    <t>Project Total: (Sum of ALL Vendors) $_______________</t>
-  </si>
-  <si>
     <t>Special Approval (as needed): _________________________________________</t>
   </si>
   <si>
     <t>DATE NEEDED BY</t>
   </si>
   <si>
-    <t>http://www.monoprice.com/Product?c_id=103&amp;cp_id=10303&amp;cs_id=1030301&amp;p_id=5438&amp;seq=1&amp;format=2</t>
-  </si>
-  <si>
-    <t>6ft USB 2.0 A Male to B Male</t>
-  </si>
-  <si>
-    <t>http://www.adafruit.com/products/63?gclid=CPmMt6LX570CFckWMgodHEIAug</t>
-  </si>
-  <si>
-    <t>Arduino 9V Power Supply</t>
-  </si>
-  <si>
-    <t>Acetal resin for follow nut and linear bearings 1"x12"</t>
-  </si>
-  <si>
-    <t>http://www.mcmaster.com/#8579k28/=tha1j6</t>
-  </si>
-  <si>
-    <t>Epoxy</t>
-  </si>
-  <si>
-    <t>500 mL SubG resin</t>
-  </si>
-  <si>
-    <t>500 ml SubG+ resin</t>
-  </si>
-  <si>
-    <t>NEMA 17 Unipolar Step Motor</t>
-  </si>
-  <si>
-    <t>Motor Shield Kit for Arduino v2</t>
-  </si>
-  <si>
-    <t>4 wire 22 gauge power cable 10'</t>
-  </si>
-  <si>
-    <t>3 wire 20 gauge power cable 10'</t>
-  </si>
-  <si>
-    <t>3' HDMI Cable</t>
-  </si>
-  <si>
-    <t>TRENDnet USB 2.0 to RS-232 DB9 Serial Converter</t>
-  </si>
-  <si>
-    <t>http://makerjuice.com/product/subg/</t>
-  </si>
-  <si>
-    <t>http://makerjuice.com/product/subgplus/</t>
-  </si>
-  <si>
-    <t>http://www.robotshop.com/en/rbsoy03-soyo-unipolar-stepper-motor.html?___SID=U</t>
-  </si>
-  <si>
-    <t>http://www.robotshop.com/en/motor-shield-kit-arduino-v2.html</t>
-  </si>
-  <si>
-    <t>http://www.mcmaster.com/#8280t32/=rrz9zv</t>
-  </si>
-  <si>
-    <t>http://www.mcmaster.com/#8278t12/=rrz9fn</t>
-  </si>
-  <si>
-    <t>http://www.amazon.com/ViewSonic-PJD5134-Projector-Lumens-Blu-Ray/dp/B00A9S3OOC/ref=sr_1_5?ie=UTF8&amp;qid=1395978933&amp;sr=8-5&amp;keywords=business+projector</t>
-  </si>
-  <si>
     <t>http://www.monoprice.com/Product?c_id=102&amp;cp_id=10240&amp;cs_id=1024008&amp;p_id=3871&amp;seq=1&amp;format=2</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>http://www.newegg.com/Product/Product.aspx?Item=9SIA3260ZC8341&amp;cm_re=arduino_uno-_-9SIA3260ZC8341-_-Product</t>
-  </si>
-  <si>
-    <t>Arduino Uno</t>
-  </si>
-  <si>
-    <t>14/09/05</t>
-  </si>
-  <si>
-    <t>14/08/28</t>
-  </si>
-  <si>
-    <t>Team Name: _3DPR____________________</t>
+    <t>Team Name: _3DPR___________________</t>
+  </si>
+  <si>
+    <t>Initiator: _Daniel Olsen________________</t>
+  </si>
+  <si>
+    <t>_Daniel Olsen_________________</t>
+  </si>
+  <si>
+    <t>Phone: __812-573-1942____________</t>
+  </si>
+  <si>
+    <t>Email: __dolsen@siu.edu__________</t>
+  </si>
+  <si>
+    <t>http://www.adafruit.com/product/50</t>
+  </si>
+  <si>
+    <t>Arduino Uno R3</t>
+  </si>
+  <si>
+    <t>http://www.adafruit.com/products/1438</t>
+  </si>
+  <si>
+    <t>NEMA 17 Stepper Motor</t>
+  </si>
+  <si>
+    <t>Adafruit Motor Shield for Arduino</t>
+  </si>
+  <si>
+    <t>http://www.adafruit.com/products/324</t>
+  </si>
+  <si>
+    <t>Shield stacking headers for Arduino</t>
+  </si>
+  <si>
+    <t>http://www.adafruit.com/products/85</t>
+  </si>
+  <si>
+    <t>http://www.adafruit.com/products/798</t>
+  </si>
+  <si>
+    <t>12V 1A Power Supply</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Total: (Sum of ALL Vendors) </t>
+  </si>
+  <si>
+    <t>LINK</t>
+  </si>
+  <si>
+    <t>Name: ___Adafruit Industries_________________________________</t>
+  </si>
+  <si>
+    <t>Website: ___http://www.adafruit.com_________________________________________</t>
+  </si>
+  <si>
+    <t>__N/A_________________________</t>
+  </si>
+  <si>
+    <t>Phone: __N/A______________</t>
+  </si>
+  <si>
+    <t>Fax: __N/A__________________</t>
+  </si>
+  <si>
+    <t>http://www.monoprice.com/Product?c_id=103&amp;cp_id=10311&amp;cs_id=1031104&amp;p_id=3726&amp;seq=1&amp;format=2</t>
+  </si>
+  <si>
+    <t>3 ft HDMI Cable Black</t>
+  </si>
+  <si>
+    <t>3 ft USB 2.0 A Male to B Male</t>
+  </si>
+  <si>
+    <t>http://www.monoprice.com/Product?c_id=103&amp;cp_id=10303&amp;cs_id=1030301&amp;p_id=5437&amp;seq=1&amp;format=2</t>
+  </si>
+  <si>
+    <t>Name: _Monoprice___________________</t>
+  </si>
+  <si>
+    <t>Website: ____http://www.monoprice.com_______________________________________</t>
+  </si>
+  <si>
+    <t>_N/A__________________________</t>
+  </si>
+  <si>
+    <t>Phone: ___N/A_____________</t>
+  </si>
+  <si>
+    <t>Name: __Makerjuice__________________________________</t>
+  </si>
+  <si>
+    <t>Liter</t>
+  </si>
+  <si>
+    <t>gplus</t>
+  </si>
+  <si>
+    <t>http://www.makerjuice.com/product/gplus/</t>
+  </si>
+  <si>
+    <t>Website: ___http://www.makerjuice.com_________________________________________</t>
+  </si>
+  <si>
+    <t>Phone: _N/A_______________</t>
+  </si>
+  <si>
+    <t>Fax: _N/A___________________</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Pack of 100</t>
+  </si>
+  <si>
+    <t>Butt Splice Connector, 26-22 Wire Size</t>
+  </si>
+  <si>
+    <t>E-FFR250N-100 </t>
+  </si>
+  <si>
+    <t>22/18-Gauge Female Quick Disconnects</t>
+  </si>
+  <si>
+    <t>Name: __Amazon_________________________</t>
+  </si>
+  <si>
+    <t>Name: __McMaster Carr_________________________</t>
+  </si>
+  <si>
+    <t>10 Feet</t>
+  </si>
+  <si>
+    <t>8233T31</t>
+  </si>
+  <si>
+    <t>22 Gauge, 2 Conductor Wire</t>
+  </si>
+  <si>
+    <t>http://www.mcmaster.com/#8233t31/=thugyo</t>
+  </si>
+  <si>
+    <t>3 ft USB to RS232</t>
+  </si>
+  <si>
+    <t>G+ Resin Blue</t>
+  </si>
+  <si>
+    <t>7549K1</t>
+  </si>
+  <si>
+    <t>6459K29</t>
+  </si>
+  <si>
+    <t>86825K745</t>
+  </si>
+  <si>
+    <t>LME12UU</t>
+  </si>
+  <si>
+    <t>http://www.amazonsupply.com/lme12uu-linear-motion-bushings-closed/dp/B002BBJUIO</t>
+  </si>
+  <si>
+    <t>http://www.amazonsupply.com/dp/B005GDFFKQ?ref_=sr_1_5_txt</t>
+  </si>
+  <si>
+    <t>http://www.amazonsupply.com/dp/B00M4D0DU8?ref_=sr_1_1_txt</t>
+  </si>
+  <si>
+    <t>Pack of 4</t>
+  </si>
+  <si>
+    <t>http://www.mcmaster.com/#7549k1/=tjuroh</t>
+  </si>
+  <si>
+    <t>Metric Precision Threaded Rod, 10mm Diameter, 2mm/Turn Screw, 1750mm Long</t>
+  </si>
+  <si>
+    <t>Hardened Precision 400 Series Stainless Steel Metric Shaft, 12 mm Diameter, 1200 mm Length</t>
+  </si>
+  <si>
+    <t>Machinable Multipurpose MIC6 Cast Aluminum, Precision-Ground Sheet, 5/16" Thick, 12" x 12"</t>
+  </si>
+  <si>
+    <t>http://www.mcmaster.com/#86825k745/=tjut1o</t>
+  </si>
+  <si>
+    <t>http://www.mcmaster.com/#6459k29/=tjuslw</t>
+  </si>
+  <si>
+    <t>Pack of 4 LME12UU Linear Motion 12 mm Ball Bushings, Closed Type, Metric</t>
+  </si>
+  <si>
+    <t>Website: _____http://www.mcmaster.com_______________________________________</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -271,7 +376,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -298,13 +403,33 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -321,52 +446,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -375,7 +463,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -389,32 +477,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
@@ -422,28 +489,71 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="8" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -452,6 +562,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -459,16 +577,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>79969</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>365719</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>74295</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -477,7 +595,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6753225" y="7286625"/>
+          <a:off x="10058400" y="95250"/>
           <a:ext cx="5814019" cy="1769745"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -649,7 +767,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -681,9 +799,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -715,6 +834,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -890,46 +1010,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.85546875" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
     <col min="5" max="5" width="37.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="143.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1" ht="20.25">
-      <c r="A1" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75">
+    <row r="1" spans="1:9" s="7" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -938,67 +1060,67 @@
       </c>
       <c r="C4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>52</v>
+      <c r="B6" s="41">
+        <v>41884</v>
       </c>
       <c r="C6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75">
-      <c r="A10" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="10">
-        <f>SUM(G14:G26)</f>
-        <v>191.32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="13.5" thickBot="1">
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="33">
+        <f>SUM(G19,G37,G53,G71,G89)</f>
+        <v>524.63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -1014,466 +1136,1030 @@
       <c r="E13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="13.5" thickBot="1">
+      <c r="H13" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="13" t="s">
+      <c r="C14" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="34">
         <v>50</v>
       </c>
-      <c r="F14" s="26">
-        <v>30</v>
-      </c>
-      <c r="G14" s="1">
+      <c r="E14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="25">
+        <v>24.95</v>
+      </c>
+      <c r="G14" s="21">
         <f>(B14*F14)</f>
-        <v>30</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="13.5" thickBot="1">
+        <v>24.95</v>
+      </c>
+      <c r="H14" s="31">
+        <v>41887</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="26">
-        <v>1.34</v>
-      </c>
-      <c r="G15" s="1">
-        <f t="shared" ref="G15:G26" si="0">(B15*F15)</f>
-        <v>1.34</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="13.5" thickBot="1">
+      <c r="C15" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="34">
+        <v>1438</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="21">
+        <v>19.95</v>
+      </c>
+      <c r="G15" s="21">
+        <f t="shared" ref="G15:G18" si="0">(B15*F15)</f>
+        <v>19.95</v>
+      </c>
+      <c r="H15" s="31">
+        <v>41887</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B16" s="1">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="34">
+        <v>324</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="25">
+        <v>14</v>
+      </c>
+      <c r="G16" s="21">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="F16" s="27">
-        <v>6.95</v>
-      </c>
-      <c r="G16" s="1">
-        <f t="shared" si="0"/>
-        <v>6.95</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="13.5" thickBot="1">
+      <c r="H16" s="31">
+        <v>41887</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>5</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="26">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="G17" s="1">
+      <c r="C17" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="34">
+        <v>85</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="25">
+        <v>1.95</v>
+      </c>
+      <c r="G17" s="21">
         <f t="shared" si="0"/>
-        <v>17.100000000000001</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="13.5" thickBot="1">
+        <v>1.95</v>
+      </c>
+      <c r="H17" s="31">
+        <v>41887</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="26">
-        <v>13</v>
-      </c>
-      <c r="G18" s="1">
+      <c r="C18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="34">
+        <v>798</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="25">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="G18" s="21">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="13.5" thickBot="1">
-      <c r="A19" s="1">
-        <v>14</v>
-      </c>
-      <c r="B19" s="1">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="H18" s="31">
+        <v>41887</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="22">
+        <f>SUM(G14:G18)</f>
+        <v>83.800000000000011</v>
+      </c>
+      <c r="H19" s="32"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="12"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>8</v>
+      </c>
+      <c r="B34" s="1">
         <v>1</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="26">
-        <v>22</v>
-      </c>
-      <c r="G19" s="1">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="P19" s="26"/>
-    </row>
-    <row r="20" spans="1:16" ht="13.5" thickBot="1">
-      <c r="A20" s="1">
-        <v>15</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="26">
-        <v>25</v>
-      </c>
-      <c r="G20" s="1">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="P20" s="26"/>
-    </row>
-    <row r="21" spans="1:16" ht="13.5" thickBot="1">
-      <c r="A21" s="1">
+      <c r="C34" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="34">
+        <v>5438</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="25">
+        <v>1.02</v>
+      </c>
+      <c r="G34" s="21">
+        <f t="shared" ref="G34:G36" si="1">(B34*F34)</f>
+        <v>1.02</v>
+      </c>
+      <c r="H34" s="31">
+        <v>41887</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>9</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="36">
+        <v>3726</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" s="25">
+        <v>5.71</v>
+      </c>
+      <c r="G35" s="21">
+        <f t="shared" si="1"/>
+        <v>11.42</v>
+      </c>
+      <c r="H35" s="31">
+        <v>41887</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>10</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="37">
+        <v>3871</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" s="25">
+        <v>3.82</v>
+      </c>
+      <c r="G36" s="21">
+        <f t="shared" si="1"/>
+        <v>7.64</v>
+      </c>
+      <c r="H36" s="31">
+        <v>41887</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="1">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="26">
-        <v>15.34</v>
-      </c>
-      <c r="G21" s="1">
-        <f t="shared" si="0"/>
-        <v>15.34</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="P21" s="27"/>
-    </row>
-    <row r="22" spans="1:16" ht="13.5" thickBot="1">
-      <c r="A22" s="1">
-        <v>17</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="26">
-        <v>19.95</v>
-      </c>
-      <c r="G22" s="1">
-        <f t="shared" si="0"/>
-        <v>19.95</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="P22" s="26"/>
-    </row>
-    <row r="23" spans="1:16" ht="13.5" thickBot="1">
-      <c r="A23" s="1">
-        <v>18</v>
-      </c>
-      <c r="B23" s="1">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="26">
-        <v>7.87</v>
-      </c>
-      <c r="G23" s="1">
-        <f t="shared" si="0"/>
-        <v>7.87</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="P23" s="26"/>
-    </row>
-    <row r="24" spans="1:16" ht="13.5" thickBot="1">
-      <c r="A24" s="1">
-        <v>20</v>
-      </c>
-      <c r="B24" s="1">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="26">
-        <v>5.83</v>
-      </c>
-      <c r="G24" s="1">
-        <f t="shared" si="0"/>
-        <v>5.83</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="P24" s="26"/>
-    </row>
-    <row r="25" spans="1:16" ht="13.5" thickBot="1">
-      <c r="A25" s="18">
-        <v>21</v>
-      </c>
-      <c r="B25" s="18">
-        <v>2</v>
-      </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="26">
-        <v>2.57</v>
-      </c>
-      <c r="G25" s="1">
-        <f t="shared" si="0"/>
-        <v>5.14</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="P25" s="26"/>
-    </row>
-    <row r="26" spans="1:16" ht="13.5" thickBot="1">
-      <c r="A26" s="1">
-        <v>22</v>
-      </c>
-      <c r="B26" s="1">
-        <v>2</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="25" t="s">
+      <c r="G37" s="22">
+        <f>SUM(G34:G36)</f>
+        <v>20.079999999999998</v>
+      </c>
+      <c r="H37" s="32"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="12"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="E26" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26" s="30">
-        <v>10.9</v>
-      </c>
-      <c r="G26" s="1">
-        <f t="shared" si="0"/>
-        <v>21.8</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="P26" s="26"/>
-    </row>
-    <row r="27" spans="1:16" ht="13.5" thickBot="1">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="28">
-        <f>SUM(G14:G26)</f>
-        <v>191.32</v>
-      </c>
-      <c r="H27" s="29"/>
-      <c r="P27" s="26"/>
-    </row>
-    <row r="28" spans="1:16" ht="13.5" thickBot="1">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="21"/>
-      <c r="P28" s="26"/>
-    </row>
-    <row r="29" spans="1:16" ht="13.5" thickBot="1">
-      <c r="P29" s="26"/>
-    </row>
-    <row r="30" spans="1:16" ht="13.5" thickBot="1">
-      <c r="P30" s="26"/>
-    </row>
-    <row r="31" spans="1:16" ht="13.5" thickBot="1">
-      <c r="P31" s="26"/>
-    </row>
-    <row r="32" spans="1:16" ht="13.5" thickBot="1">
-      <c r="P32" s="26"/>
-    </row>
-    <row r="33" spans="1:16" ht="13.5" thickBot="1">
-      <c r="P33" s="26"/>
-    </row>
-    <row r="34" spans="1:16" ht="13.5" thickBot="1">
-      <c r="P34" s="26"/>
-    </row>
-    <row r="35" spans="1:16" ht="13.5" thickBot="1">
-      <c r="P35" s="26"/>
-    </row>
-    <row r="36" spans="1:16" ht="13.5" thickBot="1">
-      <c r="A36" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="P36" s="26"/>
-    </row>
-    <row r="37" spans="1:16" ht="13.5" thickBot="1">
-      <c r="P37" s="26"/>
-    </row>
-    <row r="38" spans="1:16" ht="13.5" thickBot="1">
-      <c r="A38" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P38" s="26"/>
-    </row>
-    <row r="39" spans="1:16" ht="13.5" thickBot="1">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="P39" s="26"/>
-    </row>
-    <row r="40" spans="1:16" ht="13.5" thickBot="1">
-      <c r="A40" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="P40" s="26"/>
-    </row>
-    <row r="41" spans="1:16" ht="13.5" thickBot="1">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-    </row>
-    <row r="42" spans="1:16" ht="13.5" thickBot="1">
-      <c r="A42" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" s="27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51" s="30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>11</v>
+      </c>
+      <c r="B52" s="1">
+        <v>1</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F52" s="25">
+        <v>45</v>
+      </c>
+      <c r="G52" s="21">
+        <f t="shared" ref="G52" si="2">(B52*F52)</f>
+        <v>45</v>
+      </c>
+      <c r="H52" s="31">
+        <v>41887</v>
+      </c>
+      <c r="I52" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="P42" s="27"/>
-    </row>
-    <row r="45" spans="1:16">
-      <c r="A45" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>17</v>
+      <c r="G53" s="22">
+        <f>SUM(G52:G52)</f>
+        <v>45</v>
+      </c>
+      <c r="H53" s="32"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="12"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" s="27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F67" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G67" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="H67" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="I67" s="30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="38">
+        <v>12</v>
+      </c>
+      <c r="B68" s="38">
+        <v>1</v>
+      </c>
+      <c r="C68" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="D68" s="38">
+        <v>12142</v>
+      </c>
+      <c r="E68" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="F68" s="39">
+        <v>18.48</v>
+      </c>
+      <c r="G68" s="21">
+        <f t="shared" ref="G68:G70" si="3">(B68*F68)</f>
+        <v>18.48</v>
+      </c>
+      <c r="H68" s="31">
+        <v>41887</v>
+      </c>
+      <c r="I68" s="40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>13</v>
+      </c>
+      <c r="B69" s="1">
+        <v>1</v>
+      </c>
+      <c r="C69" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="D69" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F69" s="25">
+        <v>7.98</v>
+      </c>
+      <c r="G69" s="21">
+        <f t="shared" si="3"/>
+        <v>7.98</v>
+      </c>
+      <c r="H69" s="31">
+        <v>41887</v>
+      </c>
+      <c r="I69" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1">
+        <v>1</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D70" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F70" s="21">
+        <v>24.81</v>
+      </c>
+      <c r="G70" s="21">
+        <f t="shared" si="3"/>
+        <v>24.81</v>
+      </c>
+      <c r="H70" s="31"/>
+      <c r="I70" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="12"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G71" s="45">
+        <f>SUM(G68:G69)</f>
+        <v>26.46</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F82" s="27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F84" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G84" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="H84" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="I84" s="30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="38">
+        <v>14</v>
+      </c>
+      <c r="B85" s="38">
+        <v>1</v>
+      </c>
+      <c r="C85" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="D85" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E85" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="F85" s="39">
+        <v>7.96</v>
+      </c>
+      <c r="G85" s="21">
+        <f t="shared" ref="G85:G88" si="4">(B85*F85)</f>
+        <v>7.96</v>
+      </c>
+      <c r="H85" s="47">
+        <v>41887</v>
+      </c>
+      <c r="I85" s="40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>15</v>
+      </c>
+      <c r="B86" s="1">
+        <v>1</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D86" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E86" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F86" s="21">
+        <v>58.88</v>
+      </c>
+      <c r="G86" s="21">
+        <f t="shared" si="4"/>
+        <v>58.88</v>
+      </c>
+      <c r="H86" s="47">
+        <v>41887</v>
+      </c>
+      <c r="I86" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1">
+        <v>2</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D87" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F87" s="21">
+        <v>69.3</v>
+      </c>
+      <c r="G87" s="21">
+        <f t="shared" si="4"/>
+        <v>138.6</v>
+      </c>
+      <c r="H87" s="47">
+        <v>41887</v>
+      </c>
+      <c r="I87" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="1"/>
+      <c r="B88" s="49">
+        <v>3</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D88" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F88" s="21">
+        <v>47.95</v>
+      </c>
+      <c r="G88" s="21">
+        <f t="shared" si="4"/>
+        <v>143.85000000000002</v>
+      </c>
+      <c r="H88" s="47">
+        <v>41887</v>
+      </c>
+      <c r="I88" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B89" s="43"/>
+      <c r="D89" s="44"/>
+      <c r="F89" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="G89" s="21">
+        <f>SUM(G85:G88)</f>
+        <v>349.29</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B90" s="43"/>
+      <c r="D90" s="44"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="23"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F100" s="27" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1482,30 +2168,38 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D16" r:id="rId1"/>
-    <hyperlink ref="D19" r:id="rId2" display="https://www.google.com/url?q=http://makerjuice.com/product/subg/&amp;sa=D&amp;usg=ALhdy28NcqOnif-yXiFbv9I8JkCNmG_P_w"/>
-    <hyperlink ref="D20" r:id="rId3" display="https://www.google.com/url?q=http://makerjuice.com/product/subgplus/&amp;sa=D&amp;usg=ALhdy28imeu_ivjix_E5lxkAc8gDpycqpw"/>
-    <hyperlink ref="D21" r:id="rId4" display="https://www.google.com/url?q=http://www.robotshop.com/en/rbsoy03-soyo-unipolar-stepper-motor.html?___SID%3DU&amp;sa=D&amp;usg=ALhdy28wpKBEHHGs4RuzBoJ2NWp3kk_m2w"/>
-    <hyperlink ref="D22" r:id="rId5" display="https://www.google.com/url?q=http://www.robotshop.com/en/motor-shield-kit-arduino-v2.html&amp;sa=D&amp;usg=ALhdy28p_jTY6bMHCpn9ORzA6qwcdZO-FA"/>
-    <hyperlink ref="D23" r:id="rId6" display="https://www.google.com/url?q=http://www.mcmaster.com/%238280t32/%3Drrz9zv&amp;sa=D&amp;usg=ALhdy29g5LZLIfFT-nsW3bLbyvbcCd0Fmw"/>
-    <hyperlink ref="D24" r:id="rId7" display="https://www.google.com/url?q=http://www.mcmaster.com/%238278t12/%3Drrz9fn&amp;sa=D&amp;usg=ALhdy2_hs0_lnKcqw6JhWK-Rqo4qxP4QQg"/>
-    <hyperlink ref="D25" r:id="rId8" display="https://www.google.com/url?q=http://www.amazon.com/ViewSonic-PJD5134-Projector-Lumens-Blu-Ray/dp/B00A9S3OOC/ref%3Dsr_1_5?ie%3DUTF8%26qid%3D1395978933%26sr%3D8-5%26keywords%3Dbusiness%2Bprojector&amp;sa=D&amp;usg=ALhdy2-gD5u_ToytYlRGBeQ3V-YU5AqKiw"/>
-    <hyperlink ref="D26" r:id="rId9" display="https://www.google.com/url?q=http://www.monoprice.com/Product?c_id%3D102%26cp_id%3D10240%26cs_id%3D1024008%26p_id%3D3871%26seq%3D1%26format%3D2&amp;sa=D&amp;usg=ALhdy2-4fDz28F4hin1iUqzskGf7bFNNNw"/>
+    <hyperlink ref="I14" r:id="rId1"/>
+    <hyperlink ref="I15" r:id="rId2"/>
+    <hyperlink ref="I16" r:id="rId3"/>
+    <hyperlink ref="I17" r:id="rId4"/>
+    <hyperlink ref="I18" r:id="rId5"/>
+    <hyperlink ref="D36" r:id="rId6" display="http://www.monoprice.com/Product?c_id=102&amp;cp_id=10240&amp;cs_id=1024008&amp;p_id=3871&amp;seq=1&amp;format=2"/>
+    <hyperlink ref="I36" r:id="rId7"/>
+    <hyperlink ref="I35" r:id="rId8"/>
+    <hyperlink ref="I34" r:id="rId9"/>
+    <hyperlink ref="I52" r:id="rId10"/>
+    <hyperlink ref="I85" r:id="rId11" location="8233t31/=thugyo"/>
+    <hyperlink ref="I70" r:id="rId12"/>
+    <hyperlink ref="I68" r:id="rId13"/>
+    <hyperlink ref="I69" r:id="rId14"/>
+    <hyperlink ref="I86" r:id="rId15" location="7549k1/=tjuroh"/>
+    <hyperlink ref="I88" r:id="rId16" location="86825k745/=tjut1o"/>
+    <hyperlink ref="I87" r:id="rId17" location="6459k29/=tjuslw"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId10"/>
+  <pageSetup orientation="landscape" r:id="rId18"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId11"/>
+  <drawing r:id="rId19"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1514,12 +2208,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Logistics/ECE_Parts Order Form_75.xlsx
+++ b/Logistics/ECE_Parts Order Form_75.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="78">
   <si>
     <t>Team #:</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>Phone: ________________</t>
-  </si>
-  <si>
-    <t>Website: ____________________________________________</t>
   </si>
   <si>
     <t>Fax: ____________________</t>
@@ -215,33 +212,15 @@
     <t>Pack of 100</t>
   </si>
   <si>
-    <t>Butt Splice Connector, 26-22 Wire Size</t>
-  </si>
-  <si>
     <t>E-FFR250N-100 </t>
   </si>
   <si>
     <t>22/18-Gauge Female Quick Disconnects</t>
   </si>
   <si>
-    <t>Name: __Amazon_________________________</t>
-  </si>
-  <si>
     <t>Name: __McMaster Carr_________________________</t>
   </si>
   <si>
-    <t>10 Feet</t>
-  </si>
-  <si>
-    <t>8233T31</t>
-  </si>
-  <si>
-    <t>22 Gauge, 2 Conductor Wire</t>
-  </si>
-  <si>
-    <t>http://www.mcmaster.com/#8233t31/=thugyo</t>
-  </si>
-  <si>
     <t>3 ft USB to RS232</t>
   </si>
   <si>
@@ -254,18 +233,12 @@
     <t>6459K29</t>
   </si>
   <si>
-    <t>86825K745</t>
-  </si>
-  <si>
     <t>LME12UU</t>
   </si>
   <si>
     <t>http://www.amazonsupply.com/lme12uu-linear-motion-bushings-closed/dp/B002BBJUIO</t>
   </si>
   <si>
-    <t>http://www.amazonsupply.com/dp/B005GDFFKQ?ref_=sr_1_5_txt</t>
-  </si>
-  <si>
     <t>http://www.amazonsupply.com/dp/B00M4D0DU8?ref_=sr_1_1_txt</t>
   </si>
   <si>
@@ -281,12 +254,6 @@
     <t>Hardened Precision 400 Series Stainless Steel Metric Shaft, 12 mm Diameter, 1200 mm Length</t>
   </si>
   <si>
-    <t>Machinable Multipurpose MIC6 Cast Aluminum, Precision-Ground Sheet, 5/16" Thick, 12" x 12"</t>
-  </si>
-  <si>
-    <t>http://www.mcmaster.com/#86825k745/=tjut1o</t>
-  </si>
-  <si>
     <t>http://www.mcmaster.com/#6459k29/=tjuslw</t>
   </si>
   <si>
@@ -294,6 +261,12 @@
   </si>
   <si>
     <t>Website: _____http://www.mcmaster.com_______________________________________</t>
+  </si>
+  <si>
+    <t>Name: __Amazon Supply_________________________</t>
+  </si>
+  <si>
+    <t>Website: __http://www.amazonsupply.com__________________________________________</t>
   </si>
 </sst>
 </file>
@@ -376,7 +349,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -433,19 +406,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -463,7 +423,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -535,25 +495,18 @@
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1011,10 +964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1031,15 +984,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="7" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
+      <c r="A1" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1060,7 +1013,7 @@
       </c>
       <c r="C4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1073,12 +1026,12 @@
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="39">
         <v>41884</v>
       </c>
       <c r="C6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1093,13 +1046,13 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="24" t="s">
         <v>24</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1110,14 +1063,14 @@
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
       <c r="E10" s="33">
-        <f>SUM(G19,G37,G53,G71,G89)</f>
-        <v>524.63</v>
+        <f>SUM(G19,G37,G53,G70,G86)</f>
+        <v>379.15</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1143,10 +1096,10 @@
         <v>8</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I13" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1157,13 +1110,13 @@
         <v>1</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" s="34">
         <v>50</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" s="25">
         <v>24.95</v>
@@ -1176,7 +1129,7 @@
         <v>41887</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1187,13 +1140,13 @@
         <v>1</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D15" s="34">
         <v>1438</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F15" s="21">
         <v>19.95</v>
@@ -1206,7 +1159,7 @@
         <v>41887</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1217,13 +1170,13 @@
         <v>2</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D16" s="34">
         <v>324</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F16" s="25">
         <v>14</v>
@@ -1236,7 +1189,7 @@
         <v>41887</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1247,13 +1200,13 @@
         <v>1</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D17" s="34">
         <v>85</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F17" s="25">
         <v>1.95</v>
@@ -1266,7 +1219,7 @@
         <v>41887</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1277,13 +1230,13 @@
         <v>1</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="34">
         <v>798</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F18" s="25">
         <v>8.9499999999999993</v>
@@ -1296,7 +1249,7 @@
         <v>41887</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1306,7 +1259,7 @@
       <c r="D19" s="13"/>
       <c r="E19" s="14"/>
       <c r="F19" s="26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G19" s="22">
         <f>SUM(G14:G18)</f>
@@ -1334,13 +1287,13 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1356,7 +1309,7 @@
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -1370,21 +1323,21 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F31" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -1410,10 +1363,10 @@
         <v>8</v>
       </c>
       <c r="H33" s="30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I33" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -1424,13 +1377,13 @@
         <v>1</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D34" s="34">
         <v>5438</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" s="25">
         <v>1.02</v>
@@ -1443,7 +1396,7 @@
         <v>41887</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -1454,13 +1407,13 @@
         <v>2</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D35" s="36">
         <v>3726</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F35" s="25">
         <v>5.71</v>
@@ -1473,7 +1426,7 @@
         <v>41887</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -1484,13 +1437,13 @@
         <v>2</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D36" s="37">
         <v>3871</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" s="25">
         <v>3.82</v>
@@ -1503,7 +1456,7 @@
         <v>41887</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -1513,7 +1466,7 @@
       <c r="D37" s="13"/>
       <c r="E37" s="14"/>
       <c r="F37" s="26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G37" s="22">
         <f>SUM(G34:G36)</f>
@@ -1541,13 +1494,13 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -1563,7 +1516,7 @@
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -1577,21 +1530,21 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F49" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -1617,10 +1570,10 @@
         <v>8</v>
       </c>
       <c r="H51" s="30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I51" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -1631,13 +1584,13 @@
         <v>1</v>
       </c>
       <c r="C52" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D52" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="D52" s="35" t="s">
-        <v>53</v>
-      </c>
       <c r="E52" s="16" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F52" s="25">
         <v>45</v>
@@ -1650,7 +1603,7 @@
         <v>41887</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -1660,7 +1613,7 @@
       <c r="D53" s="13"/>
       <c r="E53" s="14"/>
       <c r="F53" s="26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G53" s="22">
         <f>SUM(G52:G52)</f>
@@ -1688,13 +1641,13 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -1710,7 +1663,7 @@
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -1724,21 +1677,21 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F65" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -1764,40 +1717,40 @@
         <v>8</v>
       </c>
       <c r="H67" s="30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I67" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="38">
+      <c r="A68" s="1">
         <v>12</v>
       </c>
-      <c r="B68" s="38">
+      <c r="B68" s="1">
         <v>1</v>
       </c>
       <c r="C68" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D68" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D68" s="38">
-        <v>12142</v>
-      </c>
-      <c r="E68" s="38" t="s">
+      <c r="E68" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="F68" s="39">
-        <v>18.48</v>
+      <c r="F68" s="25">
+        <v>7.98</v>
       </c>
       <c r="G68" s="21">
-        <f t="shared" ref="G68:G70" si="3">(B68*F68)</f>
-        <v>18.48</v>
+        <f t="shared" ref="G68:G69" si="3">(B68*F68)</f>
+        <v>7.98</v>
       </c>
       <c r="H68" s="31">
         <v>41887</v>
       </c>
-      <c r="I68" s="40" t="s">
-        <v>76</v>
+      <c r="I68" s="15" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
@@ -1807,359 +1760,277 @@
       <c r="B69" s="1">
         <v>1</v>
       </c>
-      <c r="C69" s="38" t="s">
-        <v>59</v>
+      <c r="C69" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="D69" s="35" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F69" s="25">
-        <v>7.98</v>
+        <v>74</v>
+      </c>
+      <c r="F69" s="21">
+        <v>24.81</v>
       </c>
       <c r="G69" s="21">
         <f t="shared" si="3"/>
-        <v>7.98</v>
+        <v>24.81</v>
       </c>
       <c r="H69" s="31">
         <v>41887</v>
       </c>
-      <c r="I69" s="15" t="s">
+      <c r="I69" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="12"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G70" s="42">
+        <f>SUM(G68:G69)</f>
+        <v>32.79</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="23"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1">
-        <v>1</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D70" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="E70" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="F70" s="21">
-        <v>24.81</v>
-      </c>
-      <c r="G70" s="21">
-        <f t="shared" si="3"/>
-        <v>24.81</v>
-      </c>
-      <c r="H70" s="31"/>
-      <c r="I70" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="12"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" s="45">
-        <f>SUM(G68:G69)</f>
-        <v>26.46</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="23"/>
-    </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
-      <c r="E75" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="E75" s="4"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="4"/>
+      <c r="A76" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
+      <c r="C76" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="A77" s="4"/>
       <c r="B77" s="4"/>
-      <c r="C77" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="4"/>
+      <c r="A78" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4" t="s">
+      <c r="E78" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F81" s="27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="4" t="s">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F83" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G83" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="F82" s="27" t="s">
+      <c r="I83" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>14</v>
+      </c>
+      <c r="B84" s="1">
+        <v>1</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D84" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E84" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F84" s="21">
+        <v>58.88</v>
+      </c>
+      <c r="G84" s="21">
+        <f t="shared" ref="G84:G85" si="4">(B84*F84)</f>
+        <v>58.88</v>
+      </c>
+      <c r="H84" s="43">
+        <v>41887</v>
+      </c>
+      <c r="I84" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
+      <c r="B85" s="1">
         <v>2</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F84" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G84" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="H84" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="I84" s="30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="38">
-        <v>14</v>
-      </c>
-      <c r="B85" s="38">
-        <v>1</v>
-      </c>
-      <c r="C85" s="38" t="s">
+      <c r="C85" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D85" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="D85" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="E85" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="F85" s="39">
-        <v>7.96</v>
+      <c r="E85" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F85" s="21">
+        <v>69.3</v>
       </c>
       <c r="G85" s="21">
-        <f t="shared" ref="G85:G88" si="4">(B85*F85)</f>
-        <v>7.96</v>
-      </c>
-      <c r="H85" s="47">
-        <v>41887</v>
-      </c>
-      <c r="I85" s="40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="1">
-        <v>15</v>
-      </c>
-      <c r="B86" s="1">
-        <v>1</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D86" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="E86" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F86" s="21">
-        <v>58.88</v>
-      </c>
-      <c r="G86" s="21">
-        <f t="shared" si="4"/>
-        <v>58.88</v>
-      </c>
-      <c r="H86" s="47">
-        <v>41887</v>
-      </c>
-      <c r="I86" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1">
-        <v>2</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D87" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="E87" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="F87" s="21">
-        <v>69.3</v>
-      </c>
-      <c r="G87" s="21">
         <f t="shared" si="4"/>
         <v>138.6</v>
       </c>
-      <c r="H87" s="47">
+      <c r="H85" s="43">
         <v>41887</v>
       </c>
-      <c r="I87" s="11" t="s">
-        <v>84</v>
-      </c>
+      <c r="I85" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B86" s="40"/>
+      <c r="D86" s="41"/>
+      <c r="F86" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="G86" s="21">
+        <f>SUM(G84:G85)</f>
+        <v>197.48</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B87" s="40"/>
+      <c r="D87" s="41"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="1"/>
-      <c r="B88" s="49">
-        <v>3</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D88" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="E88" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F88" s="21">
-        <v>47.95</v>
-      </c>
-      <c r="G88" s="21">
-        <f t="shared" si="4"/>
-        <v>143.85000000000002</v>
-      </c>
-      <c r="H88" s="47">
-        <v>41887</v>
-      </c>
-      <c r="I88" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B89" s="43"/>
-      <c r="D89" s="44"/>
-      <c r="F89" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" s="21">
-        <f>SUM(G85:G88)</f>
-        <v>349.29</v>
-      </c>
+      <c r="A88" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="23"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B90" s="43"/>
-      <c r="D90" s="44"/>
+      <c r="A90" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="23"/>
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="4" t="s">
-        <v>64</v>
-      </c>
+      <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
-      <c r="E93" s="4" t="s">
-        <v>86</v>
-      </c>
+      <c r="E93" s="4"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="4"/>
+      <c r="A94" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="4"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
+      <c r="E94" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F97" s="27" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F100" s="27" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2178,18 +2049,15 @@
     <hyperlink ref="I35" r:id="rId8"/>
     <hyperlink ref="I34" r:id="rId9"/>
     <hyperlink ref="I52" r:id="rId10"/>
-    <hyperlink ref="I85" r:id="rId11" location="8233t31/=thugyo"/>
-    <hyperlink ref="I70" r:id="rId12"/>
-    <hyperlink ref="I68" r:id="rId13"/>
-    <hyperlink ref="I69" r:id="rId14"/>
-    <hyperlink ref="I86" r:id="rId15" location="7549k1/=tjuroh"/>
-    <hyperlink ref="I88" r:id="rId16" location="86825k745/=tjut1o"/>
-    <hyperlink ref="I87" r:id="rId17" location="6459k29/=tjuslw"/>
+    <hyperlink ref="I69" r:id="rId11"/>
+    <hyperlink ref="I68" r:id="rId12"/>
+    <hyperlink ref="I84" r:id="rId13" location="7549k1/=tjuroh"/>
+    <hyperlink ref="I85" r:id="rId14" location="6459k29/=tjuslw"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId18"/>
+  <pageSetup orientation="landscape" r:id="rId15"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId19"/>
+  <drawing r:id="rId16"/>
 </worksheet>
 </file>
 
